--- a/Coronavirus/Assets/Resources/Localization/Technology.xlsx
+++ b/Coronavirus/Assets/Resources/Localization/Technology.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21857\Documents\GitHub\Coronavirus\Coronavirus\Assets\Resources\Localization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5965EB2E-D1D0-4D07-8CED-89A8E4F08309}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{405AB847-AA87-4CC1-8669-75C25959F999}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4944" yWindow="2100" windowWidth="17280" windowHeight="8964" xr2:uid="{7F3F1938-9141-4E45-8059-2BE1E8BCF4B0}"/>
   </bookViews>
@@ -31,38 +31,99 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Programe1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Programe1_Describe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目1的介绍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Programe2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Programe2_Describe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目2的介绍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+  <si>
+    <t>Introduce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Introduce_Describe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢迎来到升级界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击项目来进行升级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gover1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gover1_Describe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gover2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gover2_Describe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策1的介绍</t>
+  </si>
+  <si>
+    <t>政策2</t>
+  </si>
+  <si>
+    <t>政策2的介绍</t>
+  </si>
+  <si>
+    <t>Medicine1</t>
+  </si>
+  <si>
+    <t>Medicine1_Describe</t>
+  </si>
+  <si>
+    <t>Medicine2</t>
+  </si>
+  <si>
+    <t>Medicine2_Describe</t>
+  </si>
+  <si>
+    <t>医疗1</t>
+  </si>
+  <si>
+    <t>医疗1的介绍</t>
+  </si>
+  <si>
+    <t>医疗2</t>
+  </si>
+  <si>
+    <t>医疗2的介绍</t>
+  </si>
+  <si>
+    <t>Media1</t>
+  </si>
+  <si>
+    <t>Media1_Describe</t>
+  </si>
+  <si>
+    <t>Media2</t>
+  </si>
+  <si>
+    <t>Media2_Describe</t>
+  </si>
+  <si>
+    <t>媒体1</t>
+  </si>
+  <si>
+    <t>媒体1的介绍</t>
+  </si>
+  <si>
+    <t>媒体2</t>
+  </si>
+  <si>
+    <t>媒体2的介绍</t>
   </si>
 </sst>
 </file>
@@ -426,11 +487,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF56FCCC-EEF8-4C11-B83E-8EF3E43A1C59}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -458,7 +517,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -466,7 +525,87 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Coronavirus/Assets/Resources/Localization/Technology.xlsx
+++ b/Coronavirus/Assets/Resources/Localization/Technology.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21857\Documents\GitHub\Coronavirus\Coronavirus\Assets\Resources\Localization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{405AB847-AA87-4CC1-8669-75C25959F999}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5965EB2E-D1D0-4D07-8CED-89A8E4F08309}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4944" yWindow="2100" windowWidth="17280" windowHeight="8964" xr2:uid="{7F3F1938-9141-4E45-8059-2BE1E8BCF4B0}"/>
   </bookViews>
@@ -31,99 +31,38 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
-  <si>
-    <t>Introduce</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Introduce_Describe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢迎来到升级界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击项目来进行升级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gover1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gover1_Describe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gover2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gover2_Describe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>政策1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>政策1的介绍</t>
-  </si>
-  <si>
-    <t>政策2</t>
-  </si>
-  <si>
-    <t>政策2的介绍</t>
-  </si>
-  <si>
-    <t>Medicine1</t>
-  </si>
-  <si>
-    <t>Medicine1_Describe</t>
-  </si>
-  <si>
-    <t>Medicine2</t>
-  </si>
-  <si>
-    <t>Medicine2_Describe</t>
-  </si>
-  <si>
-    <t>医疗1</t>
-  </si>
-  <si>
-    <t>医疗1的介绍</t>
-  </si>
-  <si>
-    <t>医疗2</t>
-  </si>
-  <si>
-    <t>医疗2的介绍</t>
-  </si>
-  <si>
-    <t>Media1</t>
-  </si>
-  <si>
-    <t>Media1_Describe</t>
-  </si>
-  <si>
-    <t>Media2</t>
-  </si>
-  <si>
-    <t>Media2_Describe</t>
-  </si>
-  <si>
-    <t>媒体1</t>
-  </si>
-  <si>
-    <t>媒体1的介绍</t>
-  </si>
-  <si>
-    <t>媒体2</t>
-  </si>
-  <si>
-    <t>媒体2的介绍</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>Programe1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Programe1_Describe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目1的介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Programe2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Programe2_Describe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目2的介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -487,9 +426,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF56FCCC-EEF8-4C11-B83E-8EF3E43A1C59}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -517,7 +458,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -525,87 +466,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
         <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Coronavirus/Assets/Resources/Localization/Technology.xlsx
+++ b/Coronavirus/Assets/Resources/Localization/Technology.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21857\Documents\GitHub\Coronavirus\Coronavirus\Assets\Resources\Localization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{405AB847-AA87-4CC1-8669-75C25959F999}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD20DDF3-C72F-4FE4-BA03-865B6E300270}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4944" yWindow="2100" windowWidth="17280" windowHeight="8964" xr2:uid="{7F3F1938-9141-4E45-8059-2BE1E8BCF4B0}"/>
+    <workbookView xWindow="13428" yWindow="2640" windowWidth="11004" windowHeight="8964" xr2:uid="{7F3F1938-9141-4E45-8059-2BE1E8BCF4B0}"/>
   </bookViews>
   <sheets>
     <sheet name="SimpleChinese" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="203">
   <si>
     <t>Introduce</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,88 +49,840 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Gover1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gover1_Describe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gover2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gover2_Describe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>政策1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>政策1的介绍</t>
-  </si>
-  <si>
-    <t>政策2</t>
-  </si>
-  <si>
-    <t>政策2的介绍</t>
-  </si>
-  <si>
-    <t>Medicine1</t>
-  </si>
-  <si>
-    <t>Medicine1_Describe</t>
-  </si>
-  <si>
-    <t>Medicine2</t>
-  </si>
-  <si>
-    <t>Medicine2_Describe</t>
-  </si>
-  <si>
-    <t>医疗1</t>
-  </si>
-  <si>
-    <t>医疗1的介绍</t>
-  </si>
-  <si>
-    <t>医疗2</t>
-  </si>
-  <si>
-    <t>医疗2的介绍</t>
-  </si>
-  <si>
-    <t>Media1</t>
-  </si>
-  <si>
-    <t>Media1_Describe</t>
-  </si>
-  <si>
-    <t>Media2</t>
-  </si>
-  <si>
-    <t>Media2_Describe</t>
-  </si>
-  <si>
-    <t>媒体1</t>
-  </si>
-  <si>
-    <t>媒体1的介绍</t>
-  </si>
-  <si>
-    <t>媒体2</t>
-  </si>
-  <si>
-    <t>媒体2的介绍</t>
+    <t>DocPatIso</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DocPatIso_Describe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医患隔离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WardReform</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WardReform_Describe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病房改造</t>
+  </si>
+  <si>
+    <t>FreeTreatment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FreeTreatment_Describe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费医疗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuildHospital</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建医院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方舱医院</t>
+  </si>
+  <si>
+    <t>ModuleHospital</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ModuleHospital_Describe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuildHospital_Describe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宿舍征用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DormitoryRequisition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DormitoryRequisition_Describe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>军队进驻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TroopStationed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TroopStationed_Describe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取缔交易</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BanningTransaction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CityBlockade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>延期复工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeferredBack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CityBlockade_Describe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeferredBack_Describe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BanningTransaction_Describe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市封锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TrafficCoordination</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TrafficCoordination_Describe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通协调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复工保护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackProtection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackProtection_Describe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市消毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CityDisinfection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CityDisinfection_Describe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封闭管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClosedManagement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClosedManagement_Describe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官员调查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OfficialInvestigation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OfficialInvestigation_Describe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物流管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogisticsManagement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格调控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PriceRegulation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PriceRegulation_Describe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogisticsManagement_Describe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>志愿服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VolunteerService</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VolunteerService_Describe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加产能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IncreaseProductivity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IncreaseProductivity_Describe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StabilizeStock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稳定股市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StabilizeStock_Describe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国家补助</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StateSubsidy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StateSubsidy_Describe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RumorRefuting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RumorRefuting_Describe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驳斥谣言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>GoToDoc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>﻿</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就医宣传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>GoToDoc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>﻿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_Describe</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民众齐心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>村落宣传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血浆捐献</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>症状公示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台建设</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充真相</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云监工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接触调查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上报津贴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红外测温</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强制口罩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全民普查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>娱乐减停</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特别国债</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专家调查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国际交流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲类防控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集中救治</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直报系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轮休制度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子化管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>党员组织</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定点医疗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病例筛查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基因测序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核酸检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低标准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影像调查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临床诊断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lgM快速检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>药物实践</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疫苗研发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>药物筛选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中西结合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血桨研究</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新式芯片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疫苗审批</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病理解剖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitedPeople</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitedPeople_Describe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>途径调查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VillagePropaganda</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VillagePropaganda_Describe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlasmaDonation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlasmaDonation_Describe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeroIntroduction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeroIntroduction_Describe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SymptomsPublicity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SymptomsPublicity_Describe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlatformConstruction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlatformConstruction_Describe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReplenishTruth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReplenishTruth_Describe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CloudSupervisor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CloudSupervisor_Describe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ContactSurvey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ContactSurvey_Describe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PathwaySurvey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PathwaySurvey_Describe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReportBonus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReportBonus_Describe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InfraredMeasurement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InfraredMeasurement_Describe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ForcedMask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ForcedMask_Describe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GeneralSurvey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GeneralSurvey_Describe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReducedEntertainment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReducedEntertainment_Describe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GovernmentBonds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GovernmentBonds_Describe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExpertSurvey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExpertSurvey_Describe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InternationalExchange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InternationalExchange_Describe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrimaryResponse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrimaryResponse_Describe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClassAPrevention</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClassAPrevention_Describe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CentralizedTreatment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CentralizedTreatment_Describe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DirectReporting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DirectReporting_Describe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExpediteDistribution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExpediteDistribution_Describe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RotationSystem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RotationSystem_Describe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElectronicManagement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElectronicManagement_Describe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PartyOrganization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PartyOrganization_Describe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FemaleSupplement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FemaleSupplement_Describe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ContractedMedical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ContractedMedical_Describe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaseScreening</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaseScreening_Describe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GeneSequencing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GeneSequencing_Describe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NucleicDetection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NucleicDetection_Describe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LowerStandards</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LowerStandards_Describe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VideoSurvey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VideoSurvey_Describe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClinicalDiagnosis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClinicalDiagnosis_Describe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DrugPractice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DrugPractice_Describe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VaccineDevelopment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VaccineDevelopment_Describe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DrugScreening</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DrugScreening_Describe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CombinationCW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CombinationCW_Describe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BloodResearch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BloodResearch_Describe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NewChip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NewChip_Describe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VaccineApproval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VaccineApproval_Describe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PathologicalAnatomy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PathologicalAnatomy_Describe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加快发放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级响应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女性补助</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LgMDetection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LgMDetection_Describe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,6 +897,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -169,9 +928,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -487,7 +1249,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF56FCCC-EEF8-4C11-B83E-8EF3E43A1C59}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -517,7 +1279,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -525,12 +1287,12 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -538,26 +1300,26 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -565,47 +1327,1007 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
         <v>23</v>
       </c>
-      <c r="B14" t="s">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>62</v>
+      </c>
+      <c r="B41" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>64</v>
+      </c>
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>66</v>
+      </c>
+      <c r="B43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>67</v>
+      </c>
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>68</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>69</v>
+      </c>
+      <c r="B46" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>71</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>73</v>
+      </c>
+      <c r="B48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>113</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>114</v>
+      </c>
+      <c r="B50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>116</v>
+      </c>
+      <c r="B51" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>117</v>
+      </c>
+      <c r="B52" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>118</v>
+      </c>
+      <c r="B53" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>119</v>
+      </c>
+      <c r="B54" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>120</v>
+      </c>
+      <c r="B55" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>121</v>
+      </c>
+      <c r="B56" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>122</v>
+      </c>
+      <c r="B57" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>123</v>
+      </c>
+      <c r="B58" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>124</v>
+      </c>
+      <c r="B59" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>125</v>
+      </c>
+      <c r="B60" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>126</v>
+      </c>
+      <c r="B61" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>127</v>
+      </c>
+      <c r="B62" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>128</v>
+      </c>
+      <c r="B63" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>129</v>
+      </c>
+      <c r="B64" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>130</v>
+      </c>
+      <c r="B65" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>131</v>
+      </c>
+      <c r="B66" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>132</v>
+      </c>
+      <c r="B67" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>133</v>
+      </c>
+      <c r="B68" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>134</v>
+      </c>
+      <c r="B69" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>135</v>
+      </c>
+      <c r="B70" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>136</v>
+      </c>
+      <c r="B71" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>137</v>
+      </c>
+      <c r="B72" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>138</v>
+      </c>
+      <c r="B73" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>139</v>
+      </c>
+      <c r="B74" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>140</v>
+      </c>
+      <c r="B75" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>141</v>
+      </c>
+      <c r="B76" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>142</v>
+      </c>
+      <c r="B77" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>143</v>
+      </c>
+      <c r="B78" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>144</v>
+      </c>
+      <c r="B79" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>145</v>
+      </c>
+      <c r="B80" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>146</v>
+      </c>
+      <c r="B81" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>147</v>
+      </c>
+      <c r="B82" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>148</v>
+      </c>
+      <c r="B83" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>149</v>
+      </c>
+      <c r="B84" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>150</v>
+      </c>
+      <c r="B85" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>151</v>
+      </c>
+      <c r="B86" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>152</v>
+      </c>
+      <c r="B87" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>153</v>
+      </c>
+      <c r="B88" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>154</v>
+      </c>
+      <c r="B89" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>155</v>
+      </c>
+      <c r="B90" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>156</v>
+      </c>
+      <c r="B91" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>157</v>
+      </c>
+      <c r="B92" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>158</v>
+      </c>
+      <c r="B93" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>159</v>
+      </c>
+      <c r="B94" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>160</v>
+      </c>
+      <c r="B95" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>161</v>
+      </c>
+      <c r="B96" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>162</v>
+      </c>
+      <c r="B97" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>163</v>
+      </c>
+      <c r="B98" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>164</v>
+      </c>
+      <c r="B99" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>165</v>
+      </c>
+      <c r="B100" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>166</v>
+      </c>
+      <c r="B101" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>167</v>
+      </c>
+      <c r="B102" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>168</v>
+      </c>
+      <c r="B103" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>169</v>
+      </c>
+      <c r="B104" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>170</v>
+      </c>
+      <c r="B105" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>171</v>
+      </c>
+      <c r="B106" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>172</v>
+      </c>
+      <c r="B107" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>173</v>
+      </c>
+      <c r="B108" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>174</v>
+      </c>
+      <c r="B109" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>175</v>
+      </c>
+      <c r="B110" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>176</v>
+      </c>
+      <c r="B111" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>177</v>
+      </c>
+      <c r="B112" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>178</v>
+      </c>
+      <c r="B113" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>179</v>
+      </c>
+      <c r="B114" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>180</v>
+      </c>
+      <c r="B115" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>181</v>
+      </c>
+      <c r="B116" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>201</v>
+      </c>
+      <c r="B117" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>202</v>
+      </c>
+      <c r="B118" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>182</v>
+      </c>
+      <c r="B119" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>183</v>
+      </c>
+      <c r="B120" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>184</v>
+      </c>
+      <c r="B121" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>185</v>
+      </c>
+      <c r="B122" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>186</v>
+      </c>
+      <c r="B123" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>187</v>
+      </c>
+      <c r="B124" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>188</v>
+      </c>
+      <c r="B125" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>189</v>
+      </c>
+      <c r="B126" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>190</v>
+      </c>
+      <c r="B127" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>191</v>
+      </c>
+      <c r="B128" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>192</v>
+      </c>
+      <c r="B129" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>193</v>
+      </c>
+      <c r="B130" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>194</v>
+      </c>
+      <c r="B131" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>195</v>
+      </c>
+      <c r="B132" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>196</v>
+      </c>
+      <c r="B133" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>197</v>
+      </c>
+      <c r="B134" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Coronavirus/Assets/Resources/Localization/Technology.xlsx
+++ b/Coronavirus/Assets/Resources/Localization/Technology.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21857\Documents\GitHub\Coronavirus\Coronavirus\Assets\Resources\Localization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD20DDF3-C72F-4FE4-BA03-865B6E300270}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB116693-9EA5-4F37-B007-F601CDC06CD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13428" yWindow="2640" windowWidth="11004" windowHeight="8964" xr2:uid="{7F3F1938-9141-4E45-8059-2BE1E8BCF4B0}"/>
+    <workbookView xWindow="11592" yWindow="1920" windowWidth="11004" windowHeight="8964" xr2:uid="{7F3F1938-9141-4E45-8059-2BE1E8BCF4B0}"/>
   </bookViews>
   <sheets>
     <sheet name="SimpleChinese" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="204">
   <si>
     <t>Introduce</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -842,14 +842,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>VaccineApproval</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VaccineApproval_Describe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PathologicalAnatomy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -875,6 +867,18 @@
   </si>
   <si>
     <t>LgMDetection_Describe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClassifiedTreatment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClassifiedTreatment_Describe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类治疗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1251,7 +1255,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF56FCCC-EEF8-4C11-B83E-8EF3E43A1C59}">
   <dimension ref="A1:B134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="B132" sqref="B132"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1935,7 +1941,7 @@
         <v>150</v>
       </c>
       <c r="B85" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -1999,7 +2005,7 @@
         <v>158</v>
       </c>
       <c r="B93" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -2063,7 +2069,7 @@
         <v>166</v>
       </c>
       <c r="B101" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -2188,7 +2194,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B117" t="s">
         <v>104</v>
@@ -2196,7 +2202,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B118" t="s">
         <v>7</v>
@@ -2300,7 +2306,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="B131" t="s">
         <v>111</v>
@@ -2308,15 +2314,15 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>203</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B133" t="s">
         <v>112</v>
@@ -2324,7 +2330,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B134" t="s">
         <v>7</v>
